--- a/quizs/quiz2/Book1.xlsx
+++ b/quizs/quiz2/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkic\Desktop\Z1WORKING\3804ICTWork\quizs\quiz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B1E46-B4CF-43FC-A71B-6BF3D403B2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2131C31-6905-41B6-9F70-C14C54ACA14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24795" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{356B67A8-8EEF-43D2-9CD4-E9B192F21DD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{356B67A8-8EEF-43D2-9CD4-E9B192F21DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2a2b" sheetId="1" r:id="rId1"/>
-    <sheet name="3a3b" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="3a3b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>Transaction</t>
   </si>
@@ -218,13 +219,160 @@
   </si>
   <si>
     <t>P(-,C)</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>Battlefield I</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Fortnight</t>
+  </si>
+  <si>
+    <t>Witcher 3</t>
+  </si>
+  <si>
+    <t>Nier Automata</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Uncharted</t>
+  </si>
+  <si>
+    <t>FIFA 18</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>User 4</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>User 7</t>
+  </si>
+  <si>
+    <t>User 8</t>
+  </si>
+  <si>
+    <t>User 9</t>
+  </si>
+  <si>
+    <t>User 10</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>weighting</t>
+  </si>
+  <si>
+    <t>quiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +380,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +430,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -406,11 +590,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,6 +750,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,21 +783,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,12 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,6 +816,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD48EEAD-1F65-4BBD-BC57-C4ABAE3C57A2}">
   <dimension ref="B2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13:Z17"/>
     </sheetView>
   </sheetViews>
@@ -1332,14 +1679,14 @@
       <c r="T13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="28" t="s">
+      <c r="U13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -1360,25 +1707,25 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="U14" s="26" t="s">
         <v>36</v>
       </c>
       <c r="V14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="27" t="s">
+      <c r="W14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="X14" s="10">
         <v>4</v>
       </c>
-      <c r="Y14" s="27" t="s">
+      <c r="Y14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="22">
         <f>X14/X15</f>
         <v>0.8</v>
       </c>
@@ -1402,17 +1749,17 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="23"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="26"/>
+      <c r="W15" s="20"/>
       <c r="X15" s="11">
         <v>5</v>
       </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="19"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1433,25 +1780,25 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W16" s="25" t="s">
+      <c r="W16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="X16" s="10">
         <v>4</v>
       </c>
-      <c r="Y16" s="25" t="s">
+      <c r="Y16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="20">
+      <c r="Z16" s="24">
         <f>X16/X17</f>
         <v>1</v>
       </c>
@@ -1475,17 +1822,17 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="23"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="W17" s="26"/>
+      <c r="W17" s="20"/>
       <c r="X17" s="11">
         <v>4</v>
       </c>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="19"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1813,17 +2160,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Z16:Z17"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="W16:W17"/>
     <mergeCell ref="W14:W15"/>
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Z16:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1831,11 +2178,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBBB823-52A7-4CA2-BED8-941EFE9697D0}">
+  <dimension ref="B3:X46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="41">
+        <v>70</v>
+      </c>
+      <c r="J4" s="40">
+        <v>70</v>
+      </c>
+      <c r="K4" s="41">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>8.9000000000000057</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="43">
+        <v>85</v>
+      </c>
+      <c r="J5" s="42">
+        <v>85</v>
+      </c>
+      <c r="K5" s="43">
+        <v>78.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L15" si="0">K5-J5</f>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="43">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(D4:D7)</f>
+        <v>80.25</v>
+      </c>
+      <c r="J6" s="42">
+        <v>72</v>
+      </c>
+      <c r="K6" s="43">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999943</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="43">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E11" si="1">AVERAGE(D5:D8)</f>
+        <v>79</v>
+      </c>
+      <c r="J7" s="42">
+        <v>94</v>
+      </c>
+      <c r="K7" s="43">
+        <v>79.3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-14.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="43">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>79.75</v>
+      </c>
+      <c r="J8" s="42">
+        <v>65</v>
+      </c>
+      <c r="K8" s="43">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="43">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>80.25</v>
+      </c>
+      <c r="J9" s="42">
+        <v>88</v>
+      </c>
+      <c r="K9" s="43">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-8.4000000000000057</v>
+      </c>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="43">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J10" s="42">
+        <v>74</v>
+      </c>
+      <c r="K10" s="43">
+        <v>79.2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="S10" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="W10" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="43">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+      <c r="J11" s="42">
+        <v>89</v>
+      </c>
+      <c r="K11" s="43">
+        <v>79.2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-9.7999999999999972</v>
+      </c>
+      <c r="S11" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="X11" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="43">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(D10:D13)</f>
+        <v>79</v>
+      </c>
+      <c r="J12" s="42">
+        <v>67</v>
+      </c>
+      <c r="K12" s="43">
+        <v>79.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="43">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(D11:D14)</f>
+        <v>80</v>
+      </c>
+      <c r="J13" s="42">
+        <v>86</v>
+      </c>
+      <c r="K13" s="43">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-5.0999999999999943</v>
+      </c>
+      <c r="S13" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="43">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(D12:D15)</f>
+        <v>81.75</v>
+      </c>
+      <c r="J14" s="42">
+        <v>78</v>
+      </c>
+      <c r="K14" s="43">
+        <v>81.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+    </row>
+    <row r="15" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="43">
+        <v>96</v>
+      </c>
+      <c r="J15" s="42">
+        <v>96</v>
+      </c>
+      <c r="K15" s="43">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>-14.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="54"/>
+      <c r="C21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="46">
+        <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="48">
+        <v>5</v>
+      </c>
+      <c r="D23" s="48">
+        <v>4</v>
+      </c>
+      <c r="E23" s="48">
+        <v>2</v>
+      </c>
+      <c r="F23" s="48">
+        <v>5</v>
+      </c>
+      <c r="G23" s="48">
+        <v>5</v>
+      </c>
+      <c r="H23" s="48">
+        <v>3</v>
+      </c>
+      <c r="I23" s="48">
+        <v>4</v>
+      </c>
+      <c r="J23" s="48">
+        <v>1</v>
+      </c>
+      <c r="K23" s="49">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>SUM(C23:K23)</f>
+        <v>30</v>
+      </c>
+      <c r="M23" s="58">
+        <v>9</v>
+      </c>
+      <c r="R23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="48">
+        <v>4</v>
+      </c>
+      <c r="D24" s="48">
+        <v>3</v>
+      </c>
+      <c r="E24" s="48">
+        <v>5</v>
+      </c>
+      <c r="F24" s="48">
+        <v>3</v>
+      </c>
+      <c r="G24" s="48">
+        <v>1</v>
+      </c>
+      <c r="H24" s="48">
+        <v>1</v>
+      </c>
+      <c r="I24" s="48">
+        <v>1</v>
+      </c>
+      <c r="J24" s="48">
+        <v>1</v>
+      </c>
+      <c r="K24" s="49">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L32" si="2">SUM(C24:K24)</f>
+        <v>20</v>
+      </c>
+      <c r="M24" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="48">
+        <v>1</v>
+      </c>
+      <c r="D25" s="48">
+        <v>1</v>
+      </c>
+      <c r="E25" s="48">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48">
+        <v>5</v>
+      </c>
+      <c r="G25" s="48">
+        <v>5</v>
+      </c>
+      <c r="H25" s="48">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48">
+        <v>1</v>
+      </c>
+      <c r="J25" s="48">
+        <v>5</v>
+      </c>
+      <c r="K25" s="49">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M25" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="48">
+        <v>2</v>
+      </c>
+      <c r="D26" s="48">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <v>1</v>
+      </c>
+      <c r="F26" s="48">
+        <v>3</v>
+      </c>
+      <c r="G26" s="48">
+        <v>4</v>
+      </c>
+      <c r="H26" s="48">
+        <v>5</v>
+      </c>
+      <c r="I26" s="48">
+        <v>5</v>
+      </c>
+      <c r="J26" s="48">
+        <v>3</v>
+      </c>
+      <c r="K26" s="49">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M26" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="48">
+        <v>1</v>
+      </c>
+      <c r="D27" s="48">
+        <v>2</v>
+      </c>
+      <c r="E27" s="48">
+        <v>3</v>
+      </c>
+      <c r="F27" s="48">
+        <v>2</v>
+      </c>
+      <c r="G27" s="48">
+        <v>5</v>
+      </c>
+      <c r="H27" s="48">
+        <v>5</v>
+      </c>
+      <c r="I27" s="48">
+        <v>3</v>
+      </c>
+      <c r="J27" s="48">
+        <v>1</v>
+      </c>
+      <c r="K27" s="49">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M27" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="48">
+        <v>2</v>
+      </c>
+      <c r="E28" s="48">
+        <v>4</v>
+      </c>
+      <c r="F28" s="51">
+        <v>4</v>
+      </c>
+      <c r="G28" s="48">
+        <v>2</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="48">
+        <v>3</v>
+      </c>
+      <c r="J28" s="48">
+        <v>4</v>
+      </c>
+      <c r="K28" s="49">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M28" s="58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="48">
+        <v>2</v>
+      </c>
+      <c r="D29" s="48">
+        <v>3</v>
+      </c>
+      <c r="E29" s="48">
+        <v>3</v>
+      </c>
+      <c r="F29" s="48">
+        <v>4</v>
+      </c>
+      <c r="G29" s="48">
+        <v>4</v>
+      </c>
+      <c r="H29" s="48">
+        <v>3</v>
+      </c>
+      <c r="I29" s="48">
+        <v>5</v>
+      </c>
+      <c r="J29" s="48">
+        <v>2</v>
+      </c>
+      <c r="K29" s="49">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M29" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="48">
+        <v>4</v>
+      </c>
+      <c r="D30" s="48">
+        <v>5</v>
+      </c>
+      <c r="E30" s="48">
+        <v>2</v>
+      </c>
+      <c r="F30" s="48">
+        <v>4</v>
+      </c>
+      <c r="G30" s="48">
+        <v>3</v>
+      </c>
+      <c r="H30" s="48">
+        <v>4</v>
+      </c>
+      <c r="I30" s="48">
+        <v>3</v>
+      </c>
+      <c r="J30" s="48">
+        <v>4</v>
+      </c>
+      <c r="K30" s="49">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M30" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="48">
+        <v>5</v>
+      </c>
+      <c r="D31" s="48">
+        <v>4</v>
+      </c>
+      <c r="E31" s="48">
+        <v>4</v>
+      </c>
+      <c r="F31" s="48">
+        <v>3</v>
+      </c>
+      <c r="G31" s="48">
+        <v>4</v>
+      </c>
+      <c r="H31" s="48">
+        <v>3</v>
+      </c>
+      <c r="I31" s="48">
+        <v>5</v>
+      </c>
+      <c r="J31" s="48">
+        <v>2</v>
+      </c>
+      <c r="K31" s="49">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M31" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="52">
+        <v>1</v>
+      </c>
+      <c r="D32" s="52">
+        <v>2</v>
+      </c>
+      <c r="E32" s="52">
+        <v>5</v>
+      </c>
+      <c r="F32" s="52">
+        <v>4</v>
+      </c>
+      <c r="G32" s="52">
+        <v>2</v>
+      </c>
+      <c r="H32" s="52">
+        <v>4</v>
+      </c>
+      <c r="I32" s="52">
+        <v>5</v>
+      </c>
+      <c r="J32" s="52">
+        <v>1</v>
+      </c>
+      <c r="K32" s="53">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M32" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="54"/>
+      <c r="C35" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="48">
+        <f>C23-($L23/$M23)</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="D37" s="48">
+        <f t="shared" ref="D37:K37" si="3">D23-($L23/$M23)</f>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="E37" s="48">
+        <f t="shared" si="3"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="F37" s="48">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G37" s="48">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="I37" s="48">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="J37" s="48">
+        <f t="shared" si="3"/>
+        <v>-2.3333333333333335</v>
+      </c>
+      <c r="K37" s="48">
+        <f t="shared" si="3"/>
+        <v>-2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="48">
+        <f t="shared" ref="C38:K38" si="4">C24-($L24/$M24)</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="D38" s="48">
+        <f t="shared" si="4"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="E38" s="48">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="F38" s="48">
+        <f t="shared" si="4"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="G38" s="48">
+        <f t="shared" si="4"/>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="4"/>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="I38" s="48">
+        <f t="shared" si="4"/>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="J38" s="48">
+        <f t="shared" si="4"/>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="K38" s="48">
+        <f t="shared" si="4"/>
+        <v>-1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="48">
+        <f t="shared" ref="C39:K39" si="5">C25-($L25/$M25)</f>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="D39" s="48">
+        <f t="shared" si="5"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="E39" s="48">
+        <f t="shared" si="5"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="F39" s="48">
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G39" s="48">
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="5"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="I39" s="48">
+        <f t="shared" si="5"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="J39" s="48">
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K39" s="48">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="48">
+        <f t="shared" ref="C40:K40" si="6">C26-($L26/$M26)</f>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="6"/>
+        <v>-2.2222222222222223</v>
+      </c>
+      <c r="E40" s="48">
+        <f t="shared" si="6"/>
+        <v>-2.2222222222222223</v>
+      </c>
+      <c r="F40" s="48">
+        <f t="shared" si="6"/>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="G40" s="48">
+        <f t="shared" si="6"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="6"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="I40" s="48">
+        <f t="shared" si="6"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="J40" s="48">
+        <f t="shared" si="6"/>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="K40" s="48">
+        <f t="shared" si="6"/>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="48">
+        <f t="shared" ref="C41:K41" si="7">C27-($L27/$M27)</f>
+        <v>-1.5555555555555554</v>
+      </c>
+      <c r="D41" s="48">
+        <f t="shared" si="7"/>
+        <v>-0.55555555555555536</v>
+      </c>
+      <c r="E41" s="48">
+        <f t="shared" si="7"/>
+        <v>0.44444444444444464</v>
+      </c>
+      <c r="F41" s="48">
+        <f t="shared" si="7"/>
+        <v>-0.55555555555555536</v>
+      </c>
+      <c r="G41" s="48">
+        <f t="shared" si="7"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="7"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="I41" s="48">
+        <f t="shared" si="7"/>
+        <v>0.44444444444444464</v>
+      </c>
+      <c r="J41" s="48">
+        <f t="shared" si="7"/>
+        <v>-1.5555555555555554</v>
+      </c>
+      <c r="K41" s="48">
+        <f t="shared" si="7"/>
+        <v>-1.5555555555555554</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="48" t="e">
+        <f t="shared" ref="C42:K42" si="8">C28-($L28/$M28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="48">
+        <f t="shared" si="8"/>
+        <v>-1.4285714285714284</v>
+      </c>
+      <c r="E42" s="48">
+        <f t="shared" si="8"/>
+        <v>0.57142857142857162</v>
+      </c>
+      <c r="F42" s="48">
+        <f t="shared" si="8"/>
+        <v>0.57142857142857162</v>
+      </c>
+      <c r="G42" s="48">
+        <f t="shared" si="8"/>
+        <v>-1.4285714285714284</v>
+      </c>
+      <c r="H42" s="48" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="48">
+        <f t="shared" si="8"/>
+        <v>-0.42857142857142838</v>
+      </c>
+      <c r="J42" s="48">
+        <f t="shared" si="8"/>
+        <v>0.57142857142857162</v>
+      </c>
+      <c r="K42" s="48">
+        <f t="shared" si="8"/>
+        <v>1.5714285714285716</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="48">
+        <f t="shared" ref="C43:K43" si="9">C29-($L29/$M29)</f>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="D43" s="48">
+        <f t="shared" si="9"/>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="E43" s="48">
+        <f t="shared" si="9"/>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="F43" s="48">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="G43" s="48">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="9"/>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="I43" s="48">
+        <f t="shared" si="9"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="J43" s="48">
+        <f t="shared" si="9"/>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="K43" s="48">
+        <f t="shared" si="9"/>
+        <v>-0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="48">
+        <f t="shared" ref="C44:K44" si="10">C30-($L30/$M30)</f>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="D44" s="48">
+        <f t="shared" si="10"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="E44" s="48">
+        <f t="shared" si="10"/>
+        <v>-1.7777777777777777</v>
+      </c>
+      <c r="F44" s="48">
+        <f t="shared" si="10"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="G44" s="48">
+        <f t="shared" si="10"/>
+        <v>-0.77777777777777768</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="10"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="I44" s="48">
+        <f t="shared" si="10"/>
+        <v>-0.77777777777777768</v>
+      </c>
+      <c r="J44" s="48">
+        <f t="shared" si="10"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="K44" s="48">
+        <f t="shared" si="10"/>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="48">
+        <f t="shared" ref="C45:K45" si="11">C31-($L31/$M31)</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="D45" s="48">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E45" s="48">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="F45" s="48">
+        <f t="shared" si="11"/>
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="G45" s="48">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="11"/>
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="I45" s="48">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="J45" s="48">
+        <f t="shared" si="11"/>
+        <v>-1.6666666666666665</v>
+      </c>
+      <c r="K45" s="48">
+        <f t="shared" si="11"/>
+        <v>-0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="48">
+        <f t="shared" ref="C46:K46" si="12">C32-($L32/$M32)</f>
+        <v>-1.8888888888888888</v>
+      </c>
+      <c r="D46" s="48">
+        <f t="shared" si="12"/>
+        <v>-0.88888888888888884</v>
+      </c>
+      <c r="E46" s="48">
+        <f t="shared" si="12"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="F46" s="48">
+        <f t="shared" si="12"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G46" s="48">
+        <f t="shared" si="12"/>
+        <v>-0.88888888888888884</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="12"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I46" s="48">
+        <f t="shared" si="12"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="J46" s="48">
+        <f t="shared" si="12"/>
+        <v>-1.8888888888888888</v>
+      </c>
+      <c r="K46" s="48">
+        <f t="shared" si="12"/>
+        <v>-0.88888888888888884</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E256649-8DC5-4258-BB20-B75DD90D0C5B}">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,13 +3478,13 @@
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1896,19 +3508,19 @@
       <c r="H3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="12">
         <v>3</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="34" t="s">
         <v>36</v>
       </c>
       <c r="N3" s="29">
@@ -1933,15 +3545,15 @@
         <v>43</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="31"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="33"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="13">
         <v>5</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1963,19 +3575,19 @@
       <c r="H5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="12">
         <v>1</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="34" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="29">
@@ -2000,15 +3612,15 @@
         <v>43</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="13">
         <v>5</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2030,19 +3642,19 @@
       <c r="H7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="34" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="29">
@@ -2067,15 +3679,15 @@
         <v>42</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="13">
         <v>5</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -2097,13 +3709,13 @@
       <c r="H9" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="12">
@@ -2134,11 +3746,11 @@
         <v>43</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="14">
         <v>5</v>
       </c>
@@ -2164,13 +3776,13 @@
       <c r="H11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="12">
@@ -2201,11 +3813,11 @@
         <v>42</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="14">
         <v>5</v>
       </c>
@@ -2216,19 +3828,19 @@
       <c r="H13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="12">
         <v>5</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="34" t="s">
         <v>36</v>
       </c>
       <c r="N13" s="29">
@@ -2238,15 +3850,15 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H14" s="29"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="13">
         <v>5</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="29"/>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
@@ -2328,37 +3940,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
